--- a/Group Assignment 1/basic_data.xlsx
+++ b/Group Assignment 1/basic_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/v_s_donchev_student_vu_nl/Documents/Data Mining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/v_s_donchev_student_vu_nl/Documents/Data Mining/DataMiningTechniques/Group Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD7B302-90D7-6E45-91CC-9E5BF93C3E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
